--- a/doc/pl_reference_mannual.assets/regs.xlsx
+++ b/doc/pl_reference_mannual.assets/regs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoyr\Desktop\lowermachine\doc\pl_reference_mannual.assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927C7EB1-B21F-4892-86A2-155E6AA65CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CF6494-7CA4-487A-BC57-9F4A78A1EB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="3" xr2:uid="{1278F98E-34A2-407C-9471-34DBFFEBFAE2}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
   <si>
     <t>Reserved</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -419,6 +419,10 @@
   </si>
   <si>
     <t>x=A..D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -684,15 +688,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -776,10 +771,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -800,18 +801,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -821,7 +810,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2193,7 +2188,7 @@
       </c>
     </row>
     <row r="4" spans="2:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2235,7 +2230,7 @@
       <c r="AI4" s="18"/>
     </row>
     <row r="5" spans="2:35" s="6" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
@@ -2337,7 +2332,7 @@
       </c>
     </row>
     <row r="6" spans="2:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2379,7 +2374,7 @@
       <c r="AI6" s="21"/>
     </row>
     <row r="7" spans="2:35" s="6" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
@@ -2481,7 +2476,7 @@
       </c>
     </row>
     <row r="8" spans="2:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2523,7 +2518,7 @@
       <c r="AI8" s="21"/>
     </row>
     <row r="9" spans="2:35" s="6" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
@@ -2625,7 +2620,7 @@
       </c>
     </row>
     <row r="10" spans="2:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2667,7 +2662,7 @@
       <c r="AI10" s="21"/>
     </row>
     <row r="11" spans="2:35" s="6" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
@@ -2769,7 +2764,7 @@
       </c>
     </row>
     <row r="12" spans="2:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2811,7 +2806,7 @@
       <c r="AI12" s="21"/>
     </row>
     <row r="13" spans="2:35" s="6" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
@@ -2913,7 +2908,7 @@
       </c>
     </row>
     <row r="14" spans="2:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="25" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2955,7 +2950,7 @@
       <c r="AI14" s="21"/>
     </row>
     <row r="15" spans="2:35" s="6" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
@@ -3057,7 +3052,7 @@
       </c>
     </row>
     <row r="16" spans="2:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="25" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -3099,7 +3094,7 @@
       <c r="AI16" s="21"/>
     </row>
     <row r="17" spans="2:35" s="6" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
@@ -3201,49 +3196,49 @@
       </c>
     </row>
     <row r="18" spans="2:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
     </row>
     <row r="19" spans="2:35" s="6" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
@@ -3345,49 +3340,49 @@
       </c>
     </row>
     <row r="20" spans="2:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
     </row>
     <row r="21" spans="2:35" s="6" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="5" t="s">
         <v>23</v>
       </c>
@@ -3489,49 +3484,49 @@
       </c>
     </row>
     <row r="22" spans="2:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="25" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="30"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
     </row>
     <row r="23" spans="2:35" s="6" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="5" t="s">
         <v>23</v>
       </c>
@@ -3633,49 +3628,49 @@
       </c>
     </row>
     <row r="24" spans="2:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
     </row>
     <row r="25" spans="2:35" s="6" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
@@ -3777,49 +3772,49 @@
       </c>
     </row>
     <row r="26" spans="2:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="30"/>
-      <c r="AH26" s="30"/>
-      <c r="AI26" s="30"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="22"/>
+      <c r="AH26" s="22"/>
+      <c r="AI26" s="22"/>
     </row>
     <row r="27" spans="2:35" s="6" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="23"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="5" t="s">
         <v>23</v>
       </c>
@@ -3921,29 +3916,29 @@
       </c>
     </row>
     <row r="28" spans="2:35" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="28"/>
+      <c r="D28" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="30"/>
       <c r="S28" s="7" t="s">
         <v>2</v>
       </c>
@@ -3975,25 +3970,25 @@
       <c r="AI28" s="21"/>
     </row>
     <row r="29" spans="2:35" s="6" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="23"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="29"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="31"/>
       <c r="S29" s="5">
         <v>0</v>
       </c>
@@ -4047,49 +4042,49 @@
       </c>
     </row>
     <row r="30" spans="2:35" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="25" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="30"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="30"/>
-      <c r="AE30" s="30"/>
-      <c r="AF30" s="30"/>
-      <c r="AG30" s="30"/>
-      <c r="AH30" s="30"/>
-      <c r="AI30" s="30"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="22"/>
+      <c r="AI30" s="22"/>
     </row>
     <row r="31" spans="2:35" s="6" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="23"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="5" t="s">
         <v>23</v>
       </c>
@@ -4191,44 +4186,44 @@
       </c>
     </row>
     <row r="32" spans="2:35" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="25"/>
-      <c r="AD32" s="25"/>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="25"/>
-      <c r="AG32" s="25"/>
+      <c r="D32" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="27"/>
       <c r="AH32" s="7" t="s">
         <v>9</v>
       </c>
@@ -4237,40 +4232,40 @@
       </c>
     </row>
     <row r="33" spans="2:35" s="6" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="23"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="27"/>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="29"/>
       <c r="AH33" s="5" t="s">
         <v>44</v>
       </c>
@@ -4320,6 +4315,21 @@
     <row r="42" spans="2:35" s="6" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:AG33"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:R29"/>
+    <mergeCell ref="X28:AI28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:AI30"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D20:AI20"/>
+    <mergeCell ref="D22:AI22"/>
+    <mergeCell ref="D24:AI24"/>
+    <mergeCell ref="D26:AI26"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="D4:AI4"/>
     <mergeCell ref="D6:AI6"/>
@@ -4336,21 +4346,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D20:AI20"/>
-    <mergeCell ref="D22:AI22"/>
-    <mergeCell ref="D24:AI24"/>
-    <mergeCell ref="D26:AI26"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:AG33"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:R29"/>
-    <mergeCell ref="X28:AI28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4366,7 +4361,7 @@
   <dimension ref="A2:R21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5546875" defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4530,8 +4525,10 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P6" s="2" t="s">
         <v>62</v>
       </c>
@@ -4554,8 +4551,10 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="P7" s="2" t="s">
         <v>61</v>
       </c>
@@ -5061,8 +5060,8 @@
     <mergeCell ref="C17:R17"/>
     <mergeCell ref="C20:R20"/>
     <mergeCell ref="C3:R4"/>
-    <mergeCell ref="C6:O7"/>
     <mergeCell ref="C10:R10"/>
+    <mergeCell ref="C6:N7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5078,7 +5077,7 @@
   <dimension ref="B1:AI16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:AI15"/>
+      <selection activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.25"/>
@@ -5197,43 +5196,45 @@
       </c>
     </row>
     <row r="4" spans="2:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
+      <c r="D4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="36" t="s">
+        <v>91</v>
+      </c>
       <c r="AG4" s="11" t="s">
         <v>62</v>
       </c>
@@ -5245,39 +5246,41 @@
       </c>
     </row>
     <row r="5" spans="2:35" s="6" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="37">
+        <v>1</v>
+      </c>
       <c r="AG5" s="5">
         <v>0</v>
       </c>
@@ -5285,11 +5288,11 @@
         <v>0</v>
       </c>
       <c r="AI5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -5331,7 +5334,7 @@
       <c r="AI6" s="21"/>
     </row>
     <row r="7" spans="2:35" s="6" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
@@ -5433,7 +5436,7 @@
       </c>
     </row>
     <row r="8" spans="2:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -5475,7 +5478,7 @@
       <c r="AI8" s="21"/>
     </row>
     <row r="9" spans="2:35" s="6" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
@@ -5577,7 +5580,7 @@
       </c>
     </row>
     <row r="10" spans="2:35" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -5619,7 +5622,7 @@
       <c r="AI10" s="21"/>
     </row>
     <row r="11" spans="2:35" ht="8.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
@@ -5721,7 +5724,7 @@
       </c>
     </row>
     <row r="12" spans="2:35" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -5763,7 +5766,7 @@
       <c r="AI12" s="21"/>
     </row>
     <row r="13" spans="2:35" ht="8.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
@@ -5865,7 +5868,7 @@
       </c>
     </row>
     <row r="14" spans="2:35" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="25" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -5907,7 +5910,7 @@
       <c r="AI14" s="21"/>
     </row>
     <row r="15" spans="2:35" ht="8.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
@@ -6011,17 +6014,17 @@
     <row r="16" spans="2:35" s="6" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:AI6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:AI8"/>
+    <mergeCell ref="D4:AE5"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="D12:AI12"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D14:AI14"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:AI6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:AI8"/>
-    <mergeCell ref="D4:AF5"/>
     <mergeCell ref="D10:AI10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6613,91 +6616,91 @@
       </c>
     </row>
     <row r="4" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="37"/>
+      <c r="D4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="35"/>
       <c r="AI4" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:35" s="6" customFormat="1" ht="7.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="29"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="31"/>
       <c r="AI5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -6739,7 +6742,7 @@
       <c r="AI6" s="21"/>
     </row>
     <row r="7" spans="2:35" s="6" customFormat="1" ht="7.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
@@ -6841,164 +6844,164 @@
       </c>
     </row>
     <row r="8" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
+      <c r="D8" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
     </row>
     <row r="9" spans="2:35" s="6" customFormat="1" ht="7.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
     </row>
     <row r="10" spans="2:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
+      <c r="D10" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
     </row>
     <row r="11" spans="2:35" ht="7.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="32"/>
+      <c r="AI11" s="32"/>
     </row>
     <row r="12" spans="2:35" s="6" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
